--- a/beispiele/Beispiel_selektieren.xlsx
+++ b/beispiele/Beispiel_selektieren.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glah/code/github/ct-resourcen/beispiele/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glah/code/kurse/ct-resourcen/beispiele/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39C279E0-3094-0C4D-BF22-336E1898F991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{5C09B179-5F54-FB4A-9414-9B8F40074ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16900" xr2:uid="{4EAAEF04-F9F3-FD4F-A8FE-69DA31935965}"/>
+    <workbookView xWindow="380" yWindow="880" windowWidth="28040" windowHeight="16900" activeTab="2" xr2:uid="{4EAAEF04-F9F3-FD4F-A8FE-69DA31935965}"/>
   </bookViews>
   <sheets>
     <sheet name="Daten" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
   <definedNames>
     <definedName name="beispieldaten" localSheetId="0">Daten!$A$1:$B$10</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,6 +33,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -74,12 +77,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>Spalte 1</t>
   </si>
   <si>
     <t>Spalte 2</t>
+  </si>
+  <si>
+    <t>Spalte 3</t>
   </si>
 </sst>
 </file>
@@ -435,93 +441,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE54EE49-2DE9-214F-AF61-0E667CCD4F91}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
       <c r="B10">
         <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -534,94 +572,96 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" t="str" cm="1">
-        <f t="array" ref="B1:C1">Daten!A1:B1</f>
+      <c r="A1" t="str" cm="1">
+        <f t="array" ref="A1:C1">Daten!A1:C1</f>
         <v>Spalte 1</v>
       </c>
+      <c r="B1" t="str">
+        <v>Spalte 2</v>
+      </c>
       <c r="C1" t="str">
-        <v>Spalte 2</v>
+        <v>Spalte 3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" cm="1">
-        <f t="array" ref="A2:A10">_xlfn.SEQUENCE(ROWS(_xlfn.ANCHORARRAY(B2)))</f>
-        <v>1</v>
-      </c>
-      <c r="B2" cm="1">
-        <f t="array" ref="B2:C10">Daten!A2:B10</f>
-        <v>1</v>
+        <f t="array" ref="A2:C10">Daten!A2:C10</f>
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -629,24 +669,24 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -656,63 +696,93 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{948DE7F5-1833-C84D-9C33-DDC11F933255}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" cm="1">
-        <f t="array" ref="A2:A10">INDEX(_xlfn.ANCHORARRAY(Stichprobendaten!$B$2),_xlfn.ANCHORARRAY( Stichprobendaten!$A$2), _xlfn.XMATCH(A1,_xlfn.ANCHORARRAY( Stichprobendaten!$B$1)))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+        <f t="array" ref="A2:B10">_xlfn.CHOOSECOLS(_xlfn.ANCHORARRAY(Stichprobendaten!A2),  _xlfn.XMATCH(A1:B1,_xlfn.ANCHORARRAY( Stichprobendaten!$A$1)))</f>
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
